--- a/src/main/resources/invalidRegistrationDataComments.xlsx
+++ b/src/main/resources/invalidRegistrationDataComments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amasl\IdeaProjects\G10_maslovsky_project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48E842-2AEB-4ECB-953B-0037A9FF7CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6D4EE0-0BE5-4710-BAFB-B754C411604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <author>a.maslovsky@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6E79915D-C850-43B3-A1F6-360288B90D97}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1C69564C-4191-4878-87BB-696B247342AA}">
       <text>
         <r>
           <rPr>
@@ -43,11 +43,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Обов'язкове поле</t>
+          <t>1</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D27B22E9-A661-44D2-B3F0-3F6F60F922CD}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{7451EC35-85BE-4186-97A9-B23B943DC4D8}">
       <text>
         <r>
           <rPr>
@@ -57,11 +57,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Обов'язкове поле</t>
+          <t>2</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8C951BC3-55D5-4427-8344-B083F884C874}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{1BAE382B-8B30-4E30-BBEC-C4D14E3F3461}">
       <text>
         <r>
           <rPr>
@@ -71,11 +71,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Обов'язкове поле</t>
+          <t>3</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D18BDAAB-FB56-407F-8A8B-8B8BA7F6E554}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{AF8FA66B-9372-4ABD-86CF-BD248277A31F}">
       <text>
         <r>
           <rPr>
@@ -85,11 +85,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Обов'язкове поле</t>
+          <t>4</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{864C8531-6EFF-4950-B9CA-561ABCFF9DC8}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{7F07EBC5-5815-4EDF-851C-4616E7540FAA}">
       <text>
         <r>
           <rPr>
@@ -99,11 +99,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Обов'язкове поле</t>
+          <t>5</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{416D03C9-4C8F-419B-AE25-2F1651EA7C7F}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{B82F8918-A835-4342-8314-257A9783FA57}">
       <text>
         <r>
           <rPr>
@@ -113,11 +113,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Обов'язкове поле</t>
+          <t>6</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C7B5087F-1B0F-48D9-A028-20EAB628B406}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{2B5A8204-775E-4515-87E9-E34E55EA2539}">
       <text>
         <r>
           <rPr>
@@ -127,105 +127,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Обов'язкове поле</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{B5C4108F-7B69-45B9-B601-82ECF37FA6D4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Обов'язкове поле</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D7469E92-08A1-4F19-A57C-D7A20E81E755}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Обов'язкове поле</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{0022D59F-BE95-45E8-91DC-89157927DD6B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Обов'язкове поле</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{1D098403-BB0F-4D34-8B37-8FBA1E6F84C4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Обов'язкове поле</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{ED562C9E-EB57-4264-9B98-4702D4132026}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Обов'язкове поле</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{0C2373C7-70C6-48C6-A334-34E86D5DC971}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Обов'язкове поле</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{597CF437-93DB-4587-950E-F48C1BEAE50C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Обов'язкове поле</t>
+          <t>7</t>
         </r>
       </text>
     </comment>
@@ -234,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="65">
   <si>
     <t>email</t>
   </si>
@@ -420,9 +322,6 @@
   </si>
   <si>
     <t>Доу</t>
-  </si>
-  <si>
-    <t>skip</t>
   </si>
   <si>
     <t>should be filled</t>
@@ -483,10 +382,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,9 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -780,44 +679,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -867,17 +758,17 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
